--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1894.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1894.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.176987850678077</v>
+        <v>1.255456566810608</v>
       </c>
       <c r="B1">
-        <v>2.989357279643333</v>
+        <v>1.915404319763184</v>
       </c>
       <c r="C1">
-        <v>3.757967560344118</v>
+        <v>2.570384502410889</v>
       </c>
       <c r="D1">
-        <v>2.580845190469358</v>
+        <v>3.960100173950195</v>
       </c>
       <c r="E1">
-        <v>1.054979821408217</v>
+        <v>1.119397759437561</v>
       </c>
     </row>
   </sheetData>
